--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/Click Charge Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/Click Charge Lookup.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Click Charge Lookup" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -439,12 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -469,9 +463,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -494,6 +485,15 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,7 +794,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,282 +810,282 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" ht="51.75">
-      <c r="A15" s="20" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="36" t="s">
         <v>36</v>
       </c>
@@ -1095,224 +1095,224 @@
       <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/Click Charge Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/Click Charge Lookup.xlsx
@@ -33,9 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BizHub 6501</t>
-  </si>
-  <si>
     <t>Front printer (Based on price list)  - UPDATE</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Number of Cargeable Sheets</t>
+  </si>
+  <si>
+    <t>BizHub 6501 CCL</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,14 +836,14 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -852,18 +852,18 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -872,18 +872,18 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -892,20 +892,20 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -915,17 +915,17 @@
     <row r="9" spans="1:12">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -934,18 +934,18 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -954,20 +954,20 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -977,17 +977,17 @@
     <row r="12" spans="1:12">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -996,20 +996,20 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1019,17 +1019,17 @@
     <row r="14" spans="1:12">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1038,18 +1038,18 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1058,18 +1058,18 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1080,14 +1080,14 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -1096,18 +1096,18 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1116,18 +1116,18 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1136,18 +1136,18 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1156,18 +1156,18 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1176,18 +1176,18 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1196,18 +1196,18 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1216,18 +1216,18 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -1236,18 +1236,18 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -1256,18 +1256,18 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -1276,18 +1276,18 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -1296,18 +1296,18 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
